--- a/output.xlsx
+++ b/output.xlsx
@@ -1782,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -2325,6 +2325,70 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>317</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>12:12:14</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1782,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -2387,7 +2387,642 @@
           <t>12:12:14</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>318</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>15:27:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>319</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>15:28:03</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>00000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>320</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>15:59:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>321</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>16:16:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>322</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>16:20:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>323</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>16:21:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>324</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>16:22:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>325</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>16:23:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>326</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>16:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>327</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>16:56:04</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1782,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -3022,7 +3022,200 @@
           <t>16:56:04</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>328</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>17:56:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>329</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>08:34:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>330</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>08:35:01</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>05648231</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1782,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -3217,6 +3217,133 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>331</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.00476527784788</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>11:23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>332</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.006438130211520001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>31.0654</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9.933199999999999</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.3456</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>11:24:07</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
